--- a/Item_Definition.xlsx
+++ b/Item_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POS_System_Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51818E10-65F0-4335-9DB0-4B33DD824DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621FEE9E-357B-420F-A398-CADC0BB7C7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB71EF2B-E407-4C0F-8146-21B4609D5872}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Menu Code</t>
   </si>
@@ -45,18 +45,12 @@
     <t>Button Name</t>
   </si>
   <si>
-    <t>Program Code</t>
-  </si>
-  <si>
     <t>M001</t>
   </si>
   <si>
     <t>M000</t>
   </si>
   <si>
-    <t>Dashbord</t>
-  </si>
-  <si>
     <t>B01</t>
   </si>
   <si>
@@ -130,6 +124,30 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>B00</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>M001B00</t>
+  </si>
+  <si>
+    <t>M002B00</t>
+  </si>
+  <si>
+    <t>M003B00</t>
+  </si>
+  <si>
+    <t>M000B00</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Permission Code</t>
   </si>
 </sst>
 </file>
@@ -496,9 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8867269-F257-487A-94BD-145A2348EB9A}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -523,165 +543,207 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Definition.xlsx
+++ b/Item_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POS_System_Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621FEE9E-357B-420F-A398-CADC0BB7C7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E6175-B330-45FB-B725-808428B772B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB71EF2B-E407-4C0F-8146-21B4609D5872}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Menu Code</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Permission Code</t>
+  </si>
+  <si>
+    <t>Permission Name</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8867269-F257-487A-94BD-145A2348EB9A}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,9 +530,10 @@
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +549,11 @@
       <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -562,8 +569,11 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -579,8 +589,11 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -590,8 +603,11 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -601,8 +617,11 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -612,8 +631,11 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -623,8 +645,11 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -640,8 +665,11 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -651,8 +679,11 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -662,8 +693,11 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -673,8 +707,11 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -684,8 +721,11 @@
       <c r="E16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -701,8 +741,11 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -712,8 +755,11 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -723,8 +769,11 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -734,8 +783,11 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -744,6 +796,9 @@
       </c>
       <c r="E22" t="s">
         <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Item_Definition.xlsx
+++ b/Item_Definition.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POS_System_Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maw Gyi\Documents\pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E6175-B330-45FB-B725-808428B772B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86536AC-71AD-4665-8254-53F85D828F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB71EF2B-E407-4C0F-8146-21B4609D5872}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CB71EF2B-E407-4C0F-8146-21B4609D5872}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Code" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
   <si>
     <t>Menu Code</t>
   </si>
@@ -151,6 +151,174 @@
   </si>
   <si>
     <t>Permission Name</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>M004B00</t>
+  </si>
+  <si>
+    <t>M004B01</t>
+  </si>
+  <si>
+    <t>M004B02</t>
+  </si>
+  <si>
+    <t>M004B03</t>
+  </si>
+  <si>
+    <t>M004B04</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>M005B00</t>
+  </si>
+  <si>
+    <t>M005B01</t>
+  </si>
+  <si>
+    <t>M005B02</t>
+  </si>
+  <si>
+    <t>M005B03</t>
+  </si>
+  <si>
+    <t>M005B04</t>
+  </si>
+  <si>
+    <t>M006</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>M006B00</t>
+  </si>
+  <si>
+    <t>M006B01</t>
+  </si>
+  <si>
+    <t>M006B02</t>
+  </si>
+  <si>
+    <t>M006B03</t>
+  </si>
+  <si>
+    <t>M006B04</t>
+  </si>
+  <si>
+    <t>M007</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>M007B00</t>
+  </si>
+  <si>
+    <t>M007B01</t>
+  </si>
+  <si>
+    <t>M007B02</t>
+  </si>
+  <si>
+    <t>M007B03</t>
+  </si>
+  <si>
+    <t>M007B04</t>
+  </si>
+  <si>
+    <t>M008</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>M008B00</t>
+  </si>
+  <si>
+    <t>M008B01</t>
+  </si>
+  <si>
+    <t>M008B02</t>
+  </si>
+  <si>
+    <t>M008B03</t>
+  </si>
+  <si>
+    <t>M008B04</t>
+  </si>
+  <si>
+    <t>M009</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>M009B00</t>
+  </si>
+  <si>
+    <t>M009B01</t>
+  </si>
+  <si>
+    <t>M009B02</t>
+  </si>
+  <si>
+    <t>M009B03</t>
+  </si>
+  <si>
+    <t>M009B04</t>
+  </si>
+  <si>
+    <t>M010</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>M010B00</t>
+  </si>
+  <si>
+    <t>M010B01</t>
+  </si>
+  <si>
+    <t>M010B02</t>
+  </si>
+  <si>
+    <t>M010B03</t>
+  </si>
+  <si>
+    <t>M010B04</t>
+  </si>
+  <si>
+    <t>M011</t>
+  </si>
+  <si>
+    <t>UnitOfMeasure</t>
+  </si>
+  <si>
+    <t>M011B00</t>
+  </si>
+  <si>
+    <t>M011B01</t>
+  </si>
+  <si>
+    <t>M011B02</t>
+  </si>
+  <si>
+    <t>M011B03</t>
+  </si>
+  <si>
+    <t>M011B04</t>
   </si>
 </sst>
 </file>
@@ -517,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8867269-F257-487A-94BD-145A2348EB9A}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,6 +969,614 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
